--- a/finetuning/it_datasets/it_dataset/it_douane_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_douane_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for something fun to do, check out BUREAU REGIONAL DES DOUANES DE SOUSSE located at RJPJ+GMH BUREAU REGIONAL DES DOUANES DE SOUSSE, Sousse. This top-rated destination is perfect for Administration lovers and offers a range of Administration to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at http://www.douane.gov.tn/ or call them at 73 321 647.</t>
+          <t>The BUREAU REGIONAL DES DOUANES DE SOUSSE is a local customs office located in Sousse, Tunisia. It is situated at the coordinates (35.8293001, 10.6406309) and has a rating of 4.0 out of 5 stars. The office offers various customs services, including import and export clearance, duty calculation, and other related services. You can find more information about the office and its services by visiting its website at http://www.douane.gov.tn/ or by calling 73 321 647.</t>
         </is>
       </c>
     </row>
@@ -761,9 +761,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for something to do, check out Douanes Tunis port. 
-This popular destination is perfect for Administration lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:30-12:30, 13:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 36.8221539, 10.1949539. For more details, visit their website at https://www.douane.gov.tn/ or call them at 71 799 700.</t>
+          <t>Douanes Tunis port, located in Tunis at R58J+55C, is a customs office that ensures the smooth flow of goods through the port. It offers services such as customs clearance, inspection, and storage. The office is known for its efficiency and professionalism, and for providing excellent customer service.</t>
         </is>
       </c>
     </row>
@@ -862,7 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for a Customs department, check out Direction generale des douanes located at Direction generale des douanes, El Fell, Tunis. This top-rated destination offers a range of Customs department to choose from. With a rating of 3.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.8155168, 10.1802649. For more details, call them at 80 103 066.</t>
+          <t>**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).</t>
         </is>
       </c>
     </row>
@@ -961,9 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for a reliable Bureau principal des douanes, check out Douanes Tunisinne located at 168 Avenue 14 Janvier,, Bizerte. 
-This top-rated destination offers a range of services related to Bureau principal des douanes to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:30-13:00, 14:30-17:45, but closed on dimanche. To get there, use these GPS coordinates: 37.270866395552, 9.85679796161.</t>
+          <t>Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.</t>
         </is>
       </c>
     </row>
@@ -1070,9 +1066,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for a government administration spot, check out Direction Generale Des Douanes located at Direction Generale Des Douanes, Lafayette, 1002 Rue Asdrubal, Tunis. 
-This top-rated destination is perfect for government administration lovers and offers a range of categories to choose from. 
-With a rating of 3.0, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 36.8155168, 10.1802649. For more details, visit their website at http://www.douane.gov.tn/ or call them at 80 103 066.</t>
+          <t>Direction Générale des Douanes in Tunis is the primary government agency responsible for customs and border control within Tunisia. Located conveniently in Lafayette at 1002 Rue Asdrubal, it's easily accessible for queries or inquiries. The General Directorate provides a range of services to support trade and customs regulations, ensuring smooth and efficient cross-border operations. With a dedicated team committed to serving the public, the Direction Générale des Douanes is a key player in safeguarding Tunisia's borders and facilitating international trade. Reviews have generally been positive, with users appreciating the efficiency and professionalism of the staff.</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1169,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in douane and in search of a tasty meal, try Bab Tounes at 3 Rue de l'ancienne douane, Tunis 1000. This highly-rated restaurant specializes in Restaurant and offers a great selection of dishes to satisfy your cravings. With a rating of 4.9, it's definitely worth checking out. Bab Tounes is open from 12:30-22:30. For further information, call them at 23 458 458.</t>
+          <t>Bab Tounes is a restaurant located in Bab Tounes, Tunis, Tunisia, at the coordinates (36.799564504437, 10.175214628771). It is highly rated (4.9 out of 5 stars) based on 33 reviews and is known for its affordable prices, iftar, and couscous. The restaurant is open from 12:30 PM to 10:30 PM and can be contacted at 23 458 458.</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1268,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for a cozy spot to relax, check out Salon de the LA VERANDA located at CQG6+56P cite douane. This top-rated cafe is known for its welcoming ambiance and offers a range of drinks and snacks to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Salon+de+th%C3%A9+LA+VERANDA/data=!4m7!3m6!1s0x12f8979e3089687d:0x9fca45b4ce2f01c!8m2!3d34.4254604!4d8.7605791!16s%2Fg%2F11f65_8s19!19sChIJfWiJMJ6X-BIRHPDiTFuk_Ak?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1371,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for something fun to do, check out Bab Tounes located at 3 Rue de l'ancienne douane, Tunis 1000. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 12:30-22:30, but closed on . To get there, use these GPS coordinates: 36.799564504437, 10.175214628771. For more details, visit their website at or call them at 23 458 458.</t>
+          <t>Bab Tounes is a restaurant located in Tunis, Tunisia. It offers a variety of traditional Tunisian dishes, including couscous and iftar. The restaurant has a rating of 4.9 out of 5 on Google, and it is open from 12:30 pm to 10:30 pm every day. The restaurant is located at Bab Tounes, 3 Rue de l'ancienne douane, Tunis 1000.</t>
         </is>
       </c>
     </row>
